--- a/biology/Botanique/Oryza_brachyantha/Oryza_brachyantha.xlsx
+++ b/biology/Botanique/Oryza_brachyantha/Oryza_brachyantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza brachyantha est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire des régions tropicales d'Afrique. 
-Ce sont des plantes herbacées annuelles, aux tiges (chaumes) décombantes ou protrées, pouvant atteindre 100 cm de long. L'inflorescence est une panicule[2].
-Cette espèce de riz sauvage diploïde (2n=24), au génome de type FF, fait partie du pool génique secondaire du riz cultivé (Oryza sativa)[3]. Elle présente des caractères intéressants sur le plan économique tel que résistance à la bactériose du riz (Xanthomonas oryzae pv oryzae, au foreur jaune du riz (Scirpophaga incertulas), à la pyrale tigrée du riz (Cnaphalocrocis medinalis), à la mineuse du riz (Hydrellia philippina), et tolérance aux sols latéritiques[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza brachyantha est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire des régions tropicales d'Afrique. 
+Ce sont des plantes herbacées annuelles, aux tiges (chaumes) décombantes ou protrées, pouvant atteindre 100 cm de long. L'inflorescence est une panicule.
+Cette espèce de riz sauvage diploïde (2n=24), au génome de type FF, fait partie du pool génique secondaire du riz cultivé (Oryza sativa). Elle présente des caractères intéressants sur le plan économique tel que résistance à la bactériose du riz (Xanthomonas oryzae pv oryzae, au foreur jaune du riz (Scirpophaga incertulas), à la pyrale tigrée du riz (Cnaphalocrocis medinalis), à la mineuse du riz (Hydrellia philippina), et tolérance aux sols latéritiques.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle d'Oryza brachyantha s'étend dans plusieurs pays d'Afrique tropicale : Guinée, Mali, Sierra Leone,Soudan,  Zaïre, Zambie[5].
-Cette espèce se rencontre dans les milieux humides ouverts[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle d'Oryza brachyantha s'étend dans plusieurs pays d'Afrique tropicale : Guinée, Mali, Sierra Leone,Soudan,  Zaïre, Zambie.
+Cette espèce se rencontre dans les milieux humides ouverts.
 </t>
         </is>
       </c>
